--- a/StructureDefinition-ext-R5-ExplanationOfBenefit.processNote.xlsx
+++ b/StructureDefinition-ext-R5-ExplanationOfBenefit.processNote.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="161">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -447,15 +447,6 @@
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>The presentation types of notes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-note-type-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:text</t>
@@ -880,8 +871,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="26.96484375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.30078125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2320,13 +2311,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2364,13 +2355,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2395,14 +2386,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2471,7 +2462,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2574,7 +2565,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2679,7 +2670,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2722,7 +2713,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2784,7 +2775,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>122</v>
@@ -2813,10 +2804,10 @@
         <v>87</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2887,13 +2878,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2918,16 +2909,16 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O20" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -2996,7 +2987,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3099,7 +3090,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3204,7 +3195,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -3247,7 +3238,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3309,7 +3300,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>122</v>
@@ -3338,13 +3329,13 @@
         <v>136</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3545,13 +3536,13 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
